--- a/output/Wikipedia_Languages.xlsx
+++ b/output/Wikipedia_Languages.xlsx
@@ -202,7 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFD0E0E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +265,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B30" totalsRowShown="0">
-  <autoFilter ref="A1:B30"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Idioma"/>
     <tableColumn id="2" name="Hablantes"/>

--- a/output/Wikipedia_Languages.xlsx
+++ b/output/Wikipedia_Languages.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Hablantes</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Speakers</t>
   </si>
   <si>
     <t>Mandarin Chinese</t>
@@ -266,8 +266,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B30" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Idioma"/>
-    <tableColumn id="2" name="Hablantes"/>
+    <tableColumn id="1" name="Language"/>
+    <tableColumn id="2" name="Speakers"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,7 +565,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
